--- a/Tabla opciones.xlsx
+++ b/Tabla opciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UM\Segundo Semestre 2018\Sistemas Distribuidos\Akinator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B76CFF9-A962-4898-9049-B09771E4E60A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49E9E0-2859-43D3-A3F9-4B02BBD6FEDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" xr2:uid="{23F155DE-1859-4206-B193-A0D4B3B91693}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <t>Hombre</t>
   </si>
@@ -426,6 +426,15 @@
   </si>
   <si>
     <t>Me atrase un 02, pero vamo arriba</t>
+  </si>
+  <si>
+    <t>Boxeo</t>
+  </si>
+  <si>
+    <t>Buceo</t>
+  </si>
+  <si>
+    <t>Pinar 1</t>
   </si>
 </sst>
 </file>
@@ -801,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC55A117-A2AE-40B4-9E51-DE1E99BB450B}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,16 +868,16 @@
         <v>1993</v>
       </c>
       <c r="I1" s="1">
+        <v>1974</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1970</v>
+      </c>
+      <c r="K1" s="1">
         <v>1957</v>
       </c>
-      <c r="J1" s="1">
+      <c r="L1" s="1">
         <v>1962</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1974</v>
-      </c>
-      <c r="L1" s="1">
-        <v>1970</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -959,6 +968,9 @@
       <c r="P5" t="s">
         <v>26</v>
       </c>
+      <c r="Q5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1067,7 +1079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1109,6 +1121,9 @@
       </c>
       <c r="N10" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1297,43 +1312,43 @@
         <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q22" t="s">
         <v>118</v>
       </c>
+      <c r="Q22" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="R22" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y22" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="Y22" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="Z22" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB22" s="5" t="s">
         <v>129</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.35">

--- a/Tabla opciones.xlsx
+++ b/Tabla opciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UM\Segundo Semestre 2018\Sistemas Distribuidos\Akinator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/IgnacioBlanco/Desktop/akinator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49E9E0-2859-43D3-A3F9-4B02BBD6FEDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{352AE7F0-6468-3049-A5BC-E0D5356BF4B1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" xr2:uid="{23F155DE-1859-4206-B193-A0D4B3B91693}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{23F155DE-1859-4206-B193-A0D4B3B91693}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
   <si>
     <t>Hombre</t>
   </si>
@@ -278,27 +273,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>12 años</t>
-  </si>
-  <si>
-    <t>1 Semestre</t>
-  </si>
-  <si>
-    <t>28 años</t>
-  </si>
-  <si>
-    <t>Ucu</t>
-  </si>
-  <si>
-    <t>Udelar</t>
-  </si>
-  <si>
-    <t>Secretaria</t>
-  </si>
-  <si>
-    <t>18 años</t>
-  </si>
-  <si>
     <t>Ingenieria Telematica</t>
   </si>
   <si>
@@ -435,13 +409,34 @@
   </si>
   <si>
     <t>Pinar 1</t>
+  </si>
+  <si>
+    <t>Año de nacimiento</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Color de pelo</t>
+  </si>
+  <si>
+    <t>Altura</t>
+  </si>
+  <si>
+    <t>Deporte favorito</t>
+  </si>
+  <si>
+    <t>Lugar de veraneo</t>
+  </si>
+  <si>
+    <t>Instrumento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,7 +507,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -808,571 +803,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC55A117-A2AE-40B4-9E51-DE1E99BB450B}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1">
         <v>2000</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="1">
         <v>1999</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>1998</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>1997</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>1996</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>1995</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>1994</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>1993</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>1974</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>1970</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>1957</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>1962</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>25</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>36</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>37</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>39</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>40</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>41</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>43</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>44</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:20">
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:20">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:20">
+      <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>65</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>66</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="P10" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:20">
+      <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>78</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:20">
+      <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:20">
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="B15" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15">
+        <v>2014</v>
+      </c>
+      <c r="E15">
+        <v>2017</v>
+      </c>
+      <c r="F15">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="B16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>111</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="19" spans="2:29">
+      <c r="B19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B20">
-        <v>2018</v>
-      </c>
-      <c r="C20">
-        <v>2014</v>
-      </c>
-      <c r="D20">
-        <v>2017</v>
-      </c>
-      <c r="E20">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" t="s">
-        <v>115</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="U22" s="1" t="s">
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="C20" t="s">
         <v>124</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y22" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
